--- a/Functional Requirements.xlsx
+++ b/Functional Requirements.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Caeta\Desktop\Documentos\Proyectos\Aplicación para medir tiempo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Caeta\Desktop\Documents\Proyectos\TimeAdministrator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6FF837E-B511-49B4-9517-B0EA08FC4F5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49A250DE-E221-4CFA-B91A-15A901DDB029}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20910" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Specification date</t>
   </si>
@@ -39,9 +39,6 @@
     <t>Register data</t>
   </si>
   <si>
-    <t xml:space="preserve">System has to store the data time of some activity </t>
-  </si>
-  <si>
     <t>System has to show the data of in a linetime graph</t>
   </si>
   <si>
@@ -52,6 +49,15 @@
   </si>
   <si>
     <t>System has to permite select the data source to load in a secondary window in the initialize moment</t>
+  </si>
+  <si>
+    <t>Register workspace</t>
+  </si>
+  <si>
+    <t>System has to store the data time that user enters through the GUI</t>
+  </si>
+  <si>
+    <t>System has to allow that de user can create a workspace in which its store his personal configuration for that each time  that user enter to the program its load automatically that workspace</t>
   </si>
 </sst>
 </file>
@@ -87,12 +93,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -101,6 +103,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -382,13 +387,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.5703125" customWidth="1"/>
     <col min="2" max="2" width="21.42578125" customWidth="1"/>
@@ -406,38 +411,109 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
         <v>44181</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>44181</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>44181</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>44181</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="5" t="s">
+    </row>
+    <row r="5" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>44183</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="C5" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
